--- a/playwright-cucumber/src/testdata/txn/testData.xlsx
+++ b/playwright-cucumber/src/testdata/txn/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89b0806525aaa6d9/Documents/GitHub/test-automation-examples/playwright-cucumber/src/testdata/txn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF3A9E21-5688-40A0-908D-ACE11CCE91C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{FF3A9E21-5688-40A0-908D-ACE11CCE91C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F97C8FDB-58CC-4E53-B625-274D1779F553}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{4C0A5BCD-2929-48B6-BBDF-D5854EB4722E}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>TestScenario</t>
   </si>
@@ -50,6 +40,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>suresh</t>
   </si>
 </sst>
 </file>
@@ -401,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98390644-2263-437A-B0CF-943596396604}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,6 +419,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
